--- a/toolkit.excel.test/bin/Debug/TestWorkbooks/UT3.xlsx
+++ b/toolkit.excel.test/bin/Debug/TestWorkbooks/UT3.xlsx
@@ -73,9 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,9 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -392,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,15 +401,9 @@
     <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -440,16 +430,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>42736</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -462,17 +450,15 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>65380</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4">
@@ -481,13 +467,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -500,17 +484,15 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -519,13 +501,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -538,17 +518,15 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8">
@@ -557,13 +535,11 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -576,407 +552,9 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
